--- a/demo_file.xlsx
+++ b/demo_file.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29704"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abeer/Desktop/AI MIR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AI-Assessment-Task\HRBP-Backend\HRBP_Agent_BE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E02A39E0-B553-1E47-A687-FAD31035E93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="29400" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="126">
   <si>
     <t>Employee Name</t>
   </si>
@@ -414,140 +413,17 @@
   </si>
   <si>
     <t>8.2%</t>
-  </si>
-  <si>
-    <t>Christopher Johnson</t>
-  </si>
-  <si>
-    <t>Dependent (Brittany Davis – same dept)</t>
-  </si>
-  <si>
-    <t>6.4%</t>
-  </si>
-  <si>
-    <t>Daniel Carter</t>
-  </si>
-  <si>
-    <t>Joshua Williams</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>Dependent (Matthew Adams – same dept)</t>
-  </si>
-  <si>
-    <t>6.6%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>Ryan Davis</t>
-  </si>
-  <si>
-    <t>Andrew Moore</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Brandon Garcia</t>
-  </si>
-  <si>
-    <t>Nicholas Clark</t>
-  </si>
-  <si>
-    <t>Dependent (Michael Smith – same dept)</t>
-  </si>
-  <si>
-    <t>93%</t>
-  </si>
-  <si>
-    <t>Matthew Adams</t>
-  </si>
-  <si>
-    <t>Dependent (Joshua Williams – same dept)</t>
-  </si>
-  <si>
-    <t>94%</t>
-  </si>
-  <si>
-    <t>Anthony Hall</t>
-  </si>
-  <si>
-    <t>Treasury</t>
-  </si>
-  <si>
-    <t>Dependent (Jonathan Allen – same dept)</t>
-  </si>
-  <si>
-    <t>Ethan Scott</t>
-  </si>
-  <si>
-    <t>8.0%</t>
-  </si>
-  <si>
-    <t>Jonathan Allen</t>
-  </si>
-  <si>
-    <t>Dependent (Anthony Hall – same dept)</t>
-  </si>
-  <si>
-    <t>Alexander Lewis</t>
-  </si>
-  <si>
-    <t>Jacob Wright</t>
-  </si>
-  <si>
-    <t>6.9%</t>
-  </si>
-  <si>
-    <t>Justin Baker</t>
-  </si>
-  <si>
-    <t>Dependent (Chloe Harris – same dept)</t>
-  </si>
-  <si>
-    <t>6.8%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>Benjamin Torres</t>
-  </si>
-  <si>
-    <t>6.5%</t>
-  </si>
-  <si>
-    <t>Dylan Mitchell</t>
-  </si>
-  <si>
-    <t>5.7%</t>
-  </si>
-  <si>
-    <t>Nathan Ramirez</t>
-  </si>
-  <si>
-    <t>Samuel Edwards</t>
-  </si>
-  <si>
-    <t>Dependent (Jasmine Parker – same dept)</t>
-  </si>
-  <si>
-    <t>Kevin Flores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,9 +513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -677,9 +553,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,7 +590,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,7 +625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -922,26 +798,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="3" customWidth="1"/>
     <col min="3" max="15" width="15" style="3" customWidth="1"/>
     <col min="16" max="16" width="21" style="3" customWidth="1"/>
     <col min="17" max="17" width="15" style="3" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="26.1796875" style="3" customWidth="1"/>
     <col min="19" max="33" width="15" style="3" customWidth="1"/>
     <col min="34" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="6" customFormat="1" ht="48">
+    <row r="1" spans="1:38" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.95">
+    <row r="2" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -1158,7 +1034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="32.1">
+    <row r="3" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
@@ -1259,7 +1135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.95">
+    <row r="4" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -1360,7 +1236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="48">
+    <row r="5" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
@@ -1461,7 +1337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="48">
+    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1562,7 +1438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="63.95">
+    <row r="7" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
@@ -1663,7 +1539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15.95">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -1764,7 +1640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="32.1">
+    <row r="9" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
@@ -1865,7 +1741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15.95">
+    <row r="10" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>82</v>
       </c>
@@ -1966,7 +1842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="48">
+    <row r="11" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>85</v>
       </c>
@@ -2067,7 +1943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.95">
+    <row r="12" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
@@ -2168,7 +2044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="48">
+    <row r="13" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
@@ -2269,7 +2145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="48">
+    <row r="14" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>98</v>
       </c>
@@ -2370,7 +2246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15.95">
+    <row r="15" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>102</v>
       </c>
@@ -2471,7 +2347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="48">
+    <row r="16" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
@@ -2572,7 +2448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="48">
+    <row r="17" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>108</v>
       </c>
@@ -2673,7 +2549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="48">
+    <row r="18" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>111</v>
       </c>
@@ -2774,7 +2650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="48">
+    <row r="19" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>113</v>
       </c>
@@ -2875,7 +2751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="48">
+    <row r="20" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>117</v>
       </c>
@@ -2976,7 +2852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.95">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>121</v>
       </c>
@@ -3077,7 +2953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="48">
+    <row r="22" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>123</v>
       </c>
@@ -3178,1924 +3054,90 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="48">
-      <c r="A23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="4">
-        <v>42072</v>
-      </c>
-      <c r="F23" s="4">
-        <v>45514</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="H23" s="3">
-        <v>22</v>
-      </c>
-      <c r="I23" s="3">
-        <v>11</v>
-      </c>
-      <c r="J23" s="3">
-        <v>10</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2</v>
-      </c>
-      <c r="L23" s="3">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3">
-        <v>2</v>
-      </c>
-      <c r="O23" s="3">
-        <v>33</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R23" s="5">
-        <v>44928</v>
-      </c>
-      <c r="S23" s="3">
-        <v>75910</v>
-      </c>
-      <c r="T23" s="3">
-        <v>48</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1581</v>
-      </c>
-      <c r="V23" s="3">
-        <v>33217</v>
-      </c>
-      <c r="W23" s="3">
-        <v>42693</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>568</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>567</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>1433</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>5</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AG23" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="32.1">
-      <c r="A24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="4">
-        <v>42191</v>
-      </c>
-      <c r="F24" s="4">
-        <v>44377</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>18</v>
-      </c>
-      <c r="I24" s="3">
-        <v>12</v>
-      </c>
-      <c r="J24" s="3">
-        <v>12</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2</v>
-      </c>
-      <c r="L24" s="3">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>31</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>598</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>483</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>1517</v>
-      </c>
-      <c r="AD24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="AG24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="48">
-      <c r="A25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="4">
-        <v>34524</v>
-      </c>
-      <c r="F25" s="4">
-        <v>44935</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="H25" s="3">
-        <v>24</v>
-      </c>
-      <c r="I25" s="3">
-        <v>8</v>
-      </c>
-      <c r="J25" s="3">
-        <v>11</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>5</v>
-      </c>
-      <c r="M25" s="3">
-        <v>3</v>
-      </c>
-      <c r="N25" s="3">
-        <v>2</v>
-      </c>
-      <c r="O25" s="3">
-        <v>33</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" s="5">
-        <v>44397</v>
-      </c>
-      <c r="S25" s="3">
-        <v>28980</v>
-      </c>
-      <c r="T25" s="3">
-        <v>24</v>
-      </c>
-      <c r="U25" s="3">
-        <v>1207</v>
-      </c>
-      <c r="V25" s="3">
-        <v>21529</v>
-      </c>
-      <c r="W25" s="3">
-        <v>7451</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>127</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>122</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>1878</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>5</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="32.1">
-      <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="4">
-        <v>31792</v>
-      </c>
-      <c r="F26" s="4">
-        <v>45415</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>21</v>
-      </c>
-      <c r="I26" s="3">
-        <v>8</v>
-      </c>
-      <c r="J26" s="3">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2</v>
-      </c>
-      <c r="O26" s="3">
-        <v>29</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>246</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>204</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>1796</v>
-      </c>
-      <c r="AD26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>5</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="AG26" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="32.1">
-      <c r="A27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="4">
-        <v>40038</v>
-      </c>
-      <c r="F27" s="4">
-        <v>44915</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="H27" s="3">
-        <v>25</v>
-      </c>
-      <c r="I27" s="3">
-        <v>9</v>
-      </c>
-      <c r="J27" s="3">
-        <v>11</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3">
-        <v>40</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>405</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>349</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>4651</v>
-      </c>
-      <c r="AD27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AG27" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="15.95">
-      <c r="A28" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="4">
-        <v>35581</v>
-      </c>
-      <c r="F28" s="4">
-        <v>42943</v>
-      </c>
-      <c r="G28" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H28" s="3">
-        <v>18</v>
-      </c>
-      <c r="I28" s="3">
-        <v>12</v>
-      </c>
-      <c r="J28" s="3">
-        <v>11</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>4</v>
-      </c>
-      <c r="M28" s="3">
-        <v>2</v>
-      </c>
-      <c r="N28" s="3">
-        <v>3</v>
-      </c>
-      <c r="O28" s="3">
-        <v>32</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>722</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>608</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>2392</v>
-      </c>
-      <c r="AD28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AG28" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" ht="48">
-      <c r="A29" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="4">
-        <v>36442</v>
-      </c>
-      <c r="F29" s="4">
-        <v>43315</v>
-      </c>
-      <c r="G29" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="H29" s="3">
-        <v>23</v>
-      </c>
-      <c r="I29" s="3">
-        <v>9</v>
-      </c>
-      <c r="J29" s="3">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>1</v>
-      </c>
-      <c r="O29" s="3">
-        <v>37</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>200</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>174</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>2326</v>
-      </c>
-      <c r="AD29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>5</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="AG29" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="48">
-      <c r="A30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="4">
-        <v>40642</v>
-      </c>
-      <c r="F30" s="4">
-        <v>41777</v>
-      </c>
-      <c r="G30" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="H30" s="3">
-        <v>24</v>
-      </c>
-      <c r="I30" s="3">
-        <v>11</v>
-      </c>
-      <c r="J30" s="3">
-        <v>12</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
-        <v>2</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3">
-        <v>1</v>
-      </c>
-      <c r="O30" s="3">
-        <v>43</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>189</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>174</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>4826</v>
-      </c>
-      <c r="AD30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>5</v>
-      </c>
-      <c r="AF30" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="AG30" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" ht="48">
-      <c r="A31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="4">
-        <v>37416</v>
-      </c>
-      <c r="F31" s="4">
-        <v>42569</v>
-      </c>
-      <c r="G31" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H31" s="3">
-        <v>20</v>
-      </c>
-      <c r="I31" s="3">
-        <v>9</v>
-      </c>
-      <c r="J31" s="3">
-        <v>9</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <v>2</v>
-      </c>
-      <c r="M31" s="3">
-        <v>2</v>
-      </c>
-      <c r="N31" s="3">
-        <v>2</v>
-      </c>
-      <c r="O31" s="3">
-        <v>32</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>983</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>790</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>4210</v>
-      </c>
-      <c r="AD31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE31" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF31" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="AG31" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" ht="15.95">
-      <c r="A32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="4">
-        <v>37967</v>
-      </c>
-      <c r="F32" s="4">
-        <v>43914</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>23</v>
-      </c>
-      <c r="I32" s="3">
-        <v>11</v>
-      </c>
-      <c r="J32" s="3">
-        <v>12</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2</v>
-      </c>
-      <c r="O32" s="3">
-        <v>37</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R32" s="5">
-        <v>45044</v>
-      </c>
-      <c r="S32" s="3">
-        <v>41040</v>
-      </c>
-      <c r="T32" s="3">
-        <v>36</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1140</v>
-      </c>
-      <c r="V32" s="3">
-        <v>14681</v>
-      </c>
-      <c r="W32" s="3">
-        <v>26359</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>933</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>897</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>1603</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE32" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF32" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="AG32" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="48">
-      <c r="A33" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="4">
-        <v>39920</v>
-      </c>
-      <c r="F33" s="4">
-        <v>43443</v>
-      </c>
-      <c r="G33" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="H33" s="3">
-        <v>19</v>
-      </c>
-      <c r="I33" s="3">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3">
-        <v>11</v>
-      </c>
-      <c r="K33" s="3">
-        <v>2</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1</v>
-      </c>
-      <c r="O33" s="3">
-        <v>33</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>481</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>450</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>3550</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE33" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF33" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AG33" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="15.95">
-      <c r="A34" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="4">
-        <v>34997</v>
-      </c>
-      <c r="F34" s="4">
-        <v>42131</v>
-      </c>
-      <c r="G34" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="H34" s="3">
-        <v>24</v>
-      </c>
-      <c r="I34" s="3">
-        <v>11</v>
-      </c>
-      <c r="J34" s="3">
-        <v>12</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>4</v>
-      </c>
-      <c r="M34" s="3">
-        <v>2</v>
-      </c>
-      <c r="N34" s="3">
-        <v>3</v>
-      </c>
-      <c r="O34" s="3">
-        <v>38</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R34" s="5">
-        <v>44712</v>
-      </c>
-      <c r="S34" s="3">
-        <v>93220</v>
-      </c>
-      <c r="T34" s="3">
-        <v>24</v>
-      </c>
-      <c r="U34" s="3">
-        <v>3884</v>
-      </c>
-      <c r="V34" s="3">
-        <v>73242</v>
-      </c>
-      <c r="W34" s="3">
-        <v>19978</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Z34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA34" s="3">
-        <v>329</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>266</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>4734</v>
-      </c>
-      <c r="AD34" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE34" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF34" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG34" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" ht="15.95">
-      <c r="A35" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="4">
-        <v>32502</v>
-      </c>
-      <c r="F35" s="4">
-        <v>41756</v>
-      </c>
-      <c r="G35" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="H35" s="3">
-        <v>22</v>
-      </c>
-      <c r="I35" s="3">
-        <v>12</v>
-      </c>
-      <c r="J35" s="3">
-        <v>9</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3">
-        <v>37</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R35" s="5">
-        <v>44985</v>
-      </c>
-      <c r="S35" s="3">
-        <v>23550</v>
-      </c>
-      <c r="T35" s="3">
-        <v>48</v>
-      </c>
-      <c r="U35" s="3">
-        <v>490</v>
-      </c>
-      <c r="V35" s="3">
-        <v>13788</v>
-      </c>
-      <c r="W35" s="3">
-        <v>9762</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>358</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>326</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>4674</v>
-      </c>
-      <c r="AD35" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE35" s="3">
-        <v>5</v>
-      </c>
-      <c r="AF35" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="AG35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" ht="48">
-      <c r="A36" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="4">
-        <v>43301</v>
-      </c>
-      <c r="F36" s="4">
-        <v>45294</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="H36" s="3">
-        <v>24</v>
-      </c>
-      <c r="I36" s="3">
-        <v>11</v>
-      </c>
-      <c r="J36" s="3">
-        <v>10</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
-      <c r="L36" s="3">
-        <v>3</v>
-      </c>
-      <c r="M36" s="3">
-        <v>3</v>
-      </c>
-      <c r="N36" s="3">
-        <v>3</v>
-      </c>
-      <c r="O36" s="3">
-        <v>36</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R36" s="5">
-        <v>44670</v>
-      </c>
-      <c r="S36" s="3">
-        <v>99850</v>
-      </c>
-      <c r="T36" s="3">
-        <v>24</v>
-      </c>
-      <c r="U36" s="3">
-        <v>4160</v>
-      </c>
-      <c r="V36" s="3">
-        <v>59608</v>
-      </c>
-      <c r="W36" s="3">
-        <v>40242</v>
-      </c>
-      <c r="X36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Z36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA36" s="3">
-        <v>808</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>712</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>3288</v>
-      </c>
-      <c r="AD36" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE36" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF36" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG36" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" ht="32.1">
-      <c r="A37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="4">
-        <v>44400</v>
-      </c>
-      <c r="F37" s="4">
-        <v>42606</v>
-      </c>
-      <c r="G37" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H37" s="3">
-        <v>25</v>
-      </c>
-      <c r="I37" s="3">
-        <v>12</v>
-      </c>
-      <c r="J37" s="3">
-        <v>8</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="3">
-        <v>3</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1</v>
-      </c>
-      <c r="N37" s="3">
-        <v>2</v>
-      </c>
-      <c r="O37" s="3">
-        <v>39</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R37" s="5">
-        <v>44198</v>
-      </c>
-      <c r="S37" s="3">
-        <v>136030</v>
-      </c>
-      <c r="T37" s="3">
-        <v>24</v>
-      </c>
-      <c r="U37" s="3">
-        <v>5667</v>
-      </c>
-      <c r="V37" s="3">
-        <v>94268</v>
-      </c>
-      <c r="W37" s="3">
-        <v>41762</v>
-      </c>
-      <c r="X37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Z37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA37" s="3">
-        <v>231</v>
-      </c>
-      <c r="AB37" s="3">
-        <v>208</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>3792</v>
-      </c>
-      <c r="AD37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE37" s="3">
-        <v>5</v>
-      </c>
-      <c r="AF37" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG37" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" ht="15.95">
-      <c r="A38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="4">
-        <v>42599</v>
-      </c>
-      <c r="F38" s="4">
-        <v>45282</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="H38" s="3">
-        <v>22</v>
-      </c>
-      <c r="I38" s="3">
-        <v>9</v>
-      </c>
-      <c r="J38" s="3">
-        <v>12</v>
-      </c>
-      <c r="K38" s="3">
-        <v>2</v>
-      </c>
-      <c r="L38" s="3">
-        <v>2</v>
-      </c>
-      <c r="M38" s="3">
-        <v>3</v>
-      </c>
-      <c r="N38" s="3">
-        <v>1</v>
-      </c>
-      <c r="O38" s="3">
-        <v>37</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R38" s="5">
-        <v>45020</v>
-      </c>
-      <c r="S38" s="3">
-        <v>143360</v>
-      </c>
-      <c r="T38" s="3">
-        <v>36</v>
-      </c>
-      <c r="U38" s="3">
-        <v>3982</v>
-      </c>
-      <c r="V38" s="3">
-        <v>70264</v>
-      </c>
-      <c r="W38" s="3">
-        <v>73096</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA38" s="3">
-        <v>798</v>
-      </c>
-      <c r="AB38" s="3">
-        <v>672</v>
-      </c>
-      <c r="AC38" s="3">
-        <v>3328</v>
-      </c>
-      <c r="AD38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE38" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF38" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="AG38" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="15.95">
-      <c r="A39" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="4">
-        <v>44024</v>
-      </c>
-      <c r="F39" s="4">
-        <v>42210</v>
-      </c>
-      <c r="G39" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="H39" s="3">
-        <v>21</v>
-      </c>
-      <c r="I39" s="3">
-        <v>11</v>
-      </c>
-      <c r="J39" s="3">
-        <v>9</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3">
-        <v>4</v>
-      </c>
-      <c r="M39" s="3">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3">
-        <v>3</v>
-      </c>
-      <c r="O39" s="3">
-        <v>34</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R39" s="5">
-        <v>44231</v>
-      </c>
-      <c r="S39" s="3">
-        <v>41620</v>
-      </c>
-      <c r="T39" s="3">
-        <v>48</v>
-      </c>
-      <c r="U39" s="3">
-        <v>867</v>
-      </c>
-      <c r="V39" s="3">
-        <v>22390</v>
-      </c>
-      <c r="W39" s="3">
-        <v>19230</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y39" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Z39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA39" s="3">
-        <v>881</v>
-      </c>
-      <c r="AB39" s="3">
-        <v>731</v>
-      </c>
-      <c r="AC39" s="3">
-        <v>1769</v>
-      </c>
-      <c r="AD39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE39" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF39" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AG39" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" ht="48">
-      <c r="A40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="4">
-        <v>41308</v>
-      </c>
-      <c r="F40" s="4">
-        <v>44549</v>
-      </c>
-      <c r="G40" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="H40" s="3">
-        <v>20</v>
-      </c>
-      <c r="I40" s="3">
-        <v>10</v>
-      </c>
-      <c r="J40" s="3">
-        <v>8</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3">
-        <v>2</v>
-      </c>
-      <c r="M40" s="3">
-        <v>3</v>
-      </c>
-      <c r="N40" s="3">
-        <v>3</v>
-      </c>
-      <c r="O40" s="3">
-        <v>30</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Z40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA40" s="3">
-        <v>208</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>186</v>
-      </c>
-      <c r="AC40" s="3">
-        <v>2314</v>
-      </c>
-      <c r="AD40" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE40" s="3">
-        <v>5</v>
-      </c>
-      <c r="AF40" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AG40" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" ht="15.95">
-      <c r="A41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="4">
-        <v>32741</v>
-      </c>
-      <c r="F41" s="4">
-        <v>44471</v>
-      </c>
-      <c r="G41" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H41" s="3">
-        <v>24</v>
-      </c>
-      <c r="I41" s="3">
-        <v>10</v>
-      </c>
-      <c r="J41" s="3">
-        <v>11</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3">
-        <v>38</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>505</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>483</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>4517</v>
-      </c>
-      <c r="AD41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE41" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF41" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="AG41" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
